--- a/data/trans_bre/PCS12_SP_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,59</t>
+          <t>12,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>63,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>19,92%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 23,9</t>
+          <t>5,86; 14,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 27,8</t>
+          <t>7,16; 16,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 11,98</t>
+          <t>5,64; 15,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 7,73</t>
+          <t>0,6; 9,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 186,46</t>
+          <t>29,3; 92,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,67; 190,62</t>
+          <t>32,67; 101,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 54,76</t>
+          <t>26,9; 90,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 25,04</t>
+          <t>2,04; 41,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>-14,57%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 14,05</t>
+          <t>9,29; 16,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 16,37</t>
+          <t>6,9; 14,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 17,72</t>
+          <t>6,22; 13,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 10,74</t>
+          <t>-32,7; 12,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,04; 93,13</t>
+          <t>58,02; 136,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,08; 101,45</t>
+          <t>33,29; 88,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,52; 116,16</t>
+          <t>34,79; 90,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 47,05</t>
+          <t>-53,78; 72,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,1</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,1</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>66,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,82%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>-2,67%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,29; 16,91</t>
+          <t>6,55; 15,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,84</t>
+          <t>7,77; 16,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,42</t>
+          <t>4,86; 12,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 12,37</t>
+          <t>-11,55; 6,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,02; 136,65</t>
+          <t>33,25; 104,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,29; 88,69</t>
+          <t>46,62; 133,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,79; 90,09</t>
+          <t>29,59; 100,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 68,88</t>
+          <t>-49,51; 34,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>8,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,48%</t>
+          <t>70,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>53,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,0%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>42,15%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,94</t>
+          <t>7,3; 14,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 16,36</t>
+          <t>6,35; 14,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,91</t>
+          <t>5,01; 12,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 7,29</t>
+          <t>2,64; 13,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,25; 104,3</t>
+          <t>42,69; 106,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,62; 133,94</t>
+          <t>29,7; 84,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,59; 100,56</t>
+          <t>27,25; 82,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 36,13</t>
+          <t>12,42; 66,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,29</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,3; 14,42</t>
+          <t>9,48; 13,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,38</t>
+          <t>9,09; 13,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,24</t>
+          <t>7,3; 11,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 14,29</t>
+          <t>-18,72; 7,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,69; 106,15</t>
+          <t>56,68; 90,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,7; 84,07</t>
+          <t>48,37; 78,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,25; 82,5</t>
+          <t>41,43; 72,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,46; 72,12</t>
+          <t>-43,47; 37,19</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,4</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>11,27</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>72,14%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>63,08%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>56,7%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>28,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>9,48; 13,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 13,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,3; 11,48</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 9,3</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>56,68; 90,99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>48,37; 78,74</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>41,43; 72,66</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 43,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/PCS12_SP_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 14,39</t>
+          <t>5,58; 14,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 16,84</t>
+          <t>7,47; 17,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 15,35</t>
+          <t>5,94; 15,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 9,79</t>
+          <t>0,92; 9,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 92,25</t>
+          <t>29,22; 95,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,67; 101,15</t>
+          <t>35,45; 104,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,9; 90,13</t>
+          <t>27,98; 92,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 41,22</t>
+          <t>2,98; 38,83</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 16,91</t>
+          <t>9,88; 17,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,84</t>
+          <t>7,43; 14,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,42</t>
+          <t>6,17; 13,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 12,7</t>
+          <t>-36,48; 12,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,02; 136,65</t>
+          <t>62,27; 133,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,29; 88,69</t>
+          <t>36,89; 88,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,79; 90,09</t>
+          <t>34,47; 92,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 72,17</t>
+          <t>-55,44; 71,61</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,94</t>
+          <t>6,99; 15,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 16,36</t>
+          <t>7,89; 16,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,91</t>
+          <t>4,44; 12,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 6,84</t>
+          <t>-10,51; 7,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,25; 104,3</t>
+          <t>36,31; 107,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,62; 133,94</t>
+          <t>48,35; 136,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,59; 100,56</t>
+          <t>27,08; 99,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,51; 34,05</t>
+          <t>-47,03; 37,1</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 14,42</t>
+          <t>7,46; 14,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,38</t>
+          <t>6,66; 14,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,24</t>
+          <t>4,63; 12,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 13,36</t>
+          <t>2,27; 12,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,69; 106,15</t>
+          <t>44,6; 104,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,7; 84,07</t>
+          <t>30,71; 82,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,25; 82,5</t>
+          <t>24,92; 83,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 66,3</t>
+          <t>10,31; 64,0</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 13,68</t>
+          <t>9,49; 13,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,25</t>
+          <t>9,16; 13,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,48</t>
+          <t>7,46; 11,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 7,92</t>
+          <t>-14,7; 7,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,68; 90,99</t>
+          <t>57,57; 91,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,37; 78,74</t>
+          <t>49,15; 79,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,43; 72,66</t>
+          <t>41,2; 72,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 37,19</t>
+          <t>-34,03; 35,88</t>
         </is>
       </c>
     </row>
